--- a/alfabetismo_unicos.xlsx
+++ b/alfabetismo_unicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new user\Desktop\CASEN_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ds\ds_casen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CB16F-6095-447C-B67B-460338E83F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5450CD91-79E0-4AC6-8CC4-02529E7B5081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="20340" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="405" windowWidth="15675" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,14 +52,14 @@
     <t>cat_alfa</t>
   </si>
   <si>
-    <t>Alfabetismo</t>
+    <t>e1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +83,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,12 +118,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,25 +467,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -492,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -500,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -508,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -516,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -524,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -532,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -540,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
   </sheetData>
